--- a/src/predicciones/holt_winters/producto_22.xlsx
+++ b/src/predicciones/holt_winters/producto_22.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,3388 +404,3388 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>2.301882438381667</v>
+        <v>2.319598798121637</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>2.338387384796704</v>
+        <v>2.15464049470095</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44933</v>
       </c>
       <c r="B4">
-        <v>3.652908836165663</v>
+        <v>2.298531687159441</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44934</v>
       </c>
       <c r="B5">
-        <v>2.713647944367104</v>
+        <v>2.284906722413373</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44935</v>
       </c>
       <c r="B6">
-        <v>1.92680949701496</v>
+        <v>2.201039749475289</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44936</v>
       </c>
       <c r="B7">
-        <v>3.525498821116495</v>
+        <v>2.450163915489906</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44938</v>
       </c>
       <c r="B8">
-        <v>2.005061027114013</v>
+        <v>2.011976324933359</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44939</v>
       </c>
       <c r="B9">
-        <v>2.311904884075791</v>
+        <v>2.322531528982234</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44940</v>
       </c>
       <c r="B10">
-        <v>2.348409830490829</v>
+        <v>2.157573225561547</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44942</v>
       </c>
       <c r="B11">
-        <v>3.662931281859787</v>
+        <v>2.301464418020037</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44943</v>
       </c>
       <c r="B12">
-        <v>2.723670390061228</v>
+        <v>2.28783945327397</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44944</v>
       </c>
       <c r="B13">
-        <v>1.936831942709084</v>
+        <v>2.203972480335886</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44946</v>
       </c>
       <c r="B14">
-        <v>3.53552126681062</v>
+        <v>2.453096646350503</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44947</v>
       </c>
       <c r="B15">
-        <v>2.015083472808137</v>
+        <v>2.014909055793956</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44948</v>
       </c>
       <c r="B16">
-        <v>2.321927329769915</v>
+        <v>2.325464259842831</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44949</v>
       </c>
       <c r="B17">
-        <v>2.358432276184953</v>
+        <v>2.160505956422144</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44950</v>
       </c>
       <c r="B18">
-        <v>3.672953727553911</v>
+        <v>2.304397148880634</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44951</v>
       </c>
       <c r="B19">
-        <v>2.733692835755352</v>
+        <v>2.290772184134567</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44952</v>
       </c>
       <c r="B20">
-        <v>1.946854388403208</v>
+        <v>2.206905211196482</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44953</v>
       </c>
       <c r="B21">
-        <v>3.545543712504744</v>
+        <v>2.4560293772111</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44954</v>
       </c>
       <c r="B22">
-        <v>2.025105918502261</v>
+        <v>2.017841786654553</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44955</v>
       </c>
       <c r="B23">
-        <v>2.331949775464039</v>
+        <v>2.328396990703428</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44956</v>
       </c>
       <c r="B24">
-        <v>2.368454721879077</v>
+        <v>2.163438687282741</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44958</v>
       </c>
       <c r="B25">
-        <v>3.682976173248036</v>
+        <v>2.307329879741231</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44959</v>
       </c>
       <c r="B26">
-        <v>2.743715281449476</v>
+        <v>2.293704914995164</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44960</v>
       </c>
       <c r="B27">
-        <v>1.956876834097332</v>
+        <v>2.209837942057079</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44961</v>
       </c>
       <c r="B28">
-        <v>3.555566158198868</v>
+        <v>2.458962108071697</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44963</v>
       </c>
       <c r="B29">
-        <v>2.035128364196385</v>
+        <v>2.02077451751515</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44964</v>
       </c>
       <c r="B30">
-        <v>2.341972221158163</v>
+        <v>2.331329721564025</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44965</v>
       </c>
       <c r="B31">
-        <v>2.378477167573201</v>
+        <v>2.166371418143338</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44966</v>
       </c>
       <c r="B32">
-        <v>3.692998618942159</v>
+        <v>2.310262610601828</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44967</v>
       </c>
       <c r="B33">
-        <v>2.7537377271436</v>
+        <v>2.29663764585576</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44968</v>
       </c>
       <c r="B34">
-        <v>1.966899279791457</v>
+        <v>2.212770672917677</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44969</v>
       </c>
       <c r="B35">
-        <v>3.565588603892992</v>
+        <v>2.461894838932294</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44971</v>
       </c>
       <c r="B36">
-        <v>2.045150809890509</v>
+        <v>2.023707248375747</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44972</v>
       </c>
       <c r="B37">
-        <v>2.351994666852287</v>
+        <v>2.334262452424622</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44973</v>
       </c>
       <c r="B38">
-        <v>2.388499613267325</v>
+        <v>2.169304149003934</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44975</v>
       </c>
       <c r="B39">
-        <v>3.703021064636284</v>
+        <v>2.313195341462425</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44976</v>
       </c>
       <c r="B40">
-        <v>2.763760172837724</v>
+        <v>2.299570376716358</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>44977</v>
       </c>
       <c r="B41">
-        <v>1.976921725485581</v>
+        <v>2.215703403778273</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>44978</v>
       </c>
       <c r="B42">
-        <v>3.575611049587116</v>
+        <v>2.464827569792891</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>44979</v>
       </c>
       <c r="B43">
-        <v>2.055173255584633</v>
+        <v>2.026639979236344</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>44980</v>
       </c>
       <c r="B44">
-        <v>2.362017112546411</v>
+        <v>2.337195183285218</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>44981</v>
       </c>
       <c r="B45">
-        <v>2.398522058961449</v>
+        <v>2.172236879864531</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>44982</v>
       </c>
       <c r="B46">
-        <v>3.713043510330408</v>
+        <v>2.316128072323022</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>44984</v>
       </c>
       <c r="B47">
-        <v>2.773782618531848</v>
+        <v>2.302503107576955</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>44988</v>
       </c>
       <c r="B48">
-        <v>1.986944171179705</v>
+        <v>2.21863613463887</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>44989</v>
       </c>
       <c r="B49">
-        <v>3.585633495281241</v>
+        <v>2.467760300653488</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>44990</v>
       </c>
       <c r="B50">
-        <v>2.065195701278758</v>
+        <v>2.029572710096941</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>44991</v>
       </c>
       <c r="B51">
-        <v>2.372039558240535</v>
+        <v>2.340127914145816</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>44992</v>
       </c>
       <c r="B52">
-        <v>2.408544504655573</v>
+        <v>2.175169610725129</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>44994</v>
       </c>
       <c r="B53">
-        <v>3.723065956024532</v>
+        <v>2.319060803183619</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>44996</v>
       </c>
       <c r="B54">
-        <v>2.783805064225972</v>
+        <v>2.305435838437552</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>44997</v>
       </c>
       <c r="B55">
-        <v>1.996966616873829</v>
+        <v>2.221568865499467</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>44999</v>
       </c>
       <c r="B56">
-        <v>3.595655940975364</v>
+        <v>2.470693031514084</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45000</v>
       </c>
       <c r="B57">
-        <v>2.075218146972882</v>
+        <v>2.032505440957538</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45001</v>
       </c>
       <c r="B58">
-        <v>2.382062003934659</v>
+        <v>2.343060645006413</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45003</v>
       </c>
       <c r="B59">
-        <v>2.418566950349697</v>
+        <v>2.178102341585725</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45004</v>
       </c>
       <c r="B60">
-        <v>3.733088401718656</v>
+        <v>2.321993534044216</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45005</v>
       </c>
       <c r="B61">
-        <v>2.793827509920097</v>
+        <v>2.308368569298148</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45006</v>
       </c>
       <c r="B62">
-        <v>2.006989062567953</v>
+        <v>2.224501596360064</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45007</v>
       </c>
       <c r="B63">
-        <v>3.605678386669489</v>
+        <v>2.473625762374682</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45008</v>
       </c>
       <c r="B64">
-        <v>2.085240592667006</v>
+        <v>2.035438171818135</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45009</v>
       </c>
       <c r="B65">
-        <v>2.392084449628784</v>
+        <v>2.34599337586701</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45010</v>
       </c>
       <c r="B66">
-        <v>2.428589396043821</v>
+        <v>2.181035072446322</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45011</v>
       </c>
       <c r="B67">
-        <v>3.74311084741278</v>
+        <v>2.324926264904813</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45012</v>
       </c>
       <c r="B68">
-        <v>2.803849955614221</v>
+        <v>2.311301300158745</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45013</v>
       </c>
       <c r="B69">
-        <v>2.017011508262077</v>
+        <v>2.227434327220661</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45015</v>
       </c>
       <c r="B70">
-        <v>3.615700832363612</v>
+        <v>2.476558493235279</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45017</v>
       </c>
       <c r="B71">
-        <v>2.09526303836113</v>
+        <v>2.038370902678732</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45018</v>
       </c>
       <c r="B72">
-        <v>2.402106895322908</v>
+        <v>2.348926106727606</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45019</v>
       </c>
       <c r="B73">
-        <v>2.438611841737946</v>
+        <v>2.183967803306919</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45020</v>
       </c>
       <c r="B74">
-        <v>3.753133293106904</v>
+        <v>2.32785899576541</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45021</v>
       </c>
       <c r="B75">
-        <v>2.813872401308345</v>
+        <v>2.314234031019343</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45022</v>
       </c>
       <c r="B76">
-        <v>2.027033953956201</v>
+        <v>2.230367058081258</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45026</v>
       </c>
       <c r="B77">
-        <v>3.625723278057737</v>
+        <v>2.479491224095876</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45027</v>
       </c>
       <c r="B78">
-        <v>2.105285484055254</v>
+        <v>2.041303633539329</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45028</v>
       </c>
       <c r="B79">
-        <v>2.412129341017032</v>
+        <v>2.351858837588203</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45030</v>
       </c>
       <c r="B80">
-        <v>2.44863428743207</v>
+        <v>2.186900534167516</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45032</v>
       </c>
       <c r="B81">
-        <v>3.763155738801029</v>
+        <v>2.330791726626007</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45033</v>
       </c>
       <c r="B82">
-        <v>2.823894847002469</v>
+        <v>2.317166761879939</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45034</v>
       </c>
       <c r="B83">
-        <v>2.037056399650325</v>
+        <v>2.233299788941855</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45035</v>
       </c>
       <c r="B84">
-        <v>3.635745723751861</v>
+        <v>2.482423954956472</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45036</v>
       </c>
       <c r="B85">
-        <v>2.115307929749378</v>
+        <v>2.044236364399926</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45037</v>
       </c>
       <c r="B86">
-        <v>2.422151786711156</v>
+        <v>2.3547915684488</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45038</v>
       </c>
       <c r="B87">
-        <v>2.458656733126194</v>
+        <v>2.189833265028113</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45039</v>
       </c>
       <c r="B88">
-        <v>3.773178184495152</v>
+        <v>2.333724457486604</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45041</v>
       </c>
       <c r="B89">
-        <v>2.833917292696593</v>
+        <v>2.320099492740536</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45042</v>
       </c>
       <c r="B90">
-        <v>2.04707884534445</v>
+        <v>2.236232519802452</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45043</v>
       </c>
       <c r="B91">
-        <v>3.645768169445985</v>
+        <v>2.485356685817069</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45045</v>
       </c>
       <c r="B92">
-        <v>2.125330375443502</v>
+        <v>2.047169095260522</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45049</v>
       </c>
       <c r="B93">
-        <v>2.43217423240528</v>
+        <v>2.357724299309397</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45050</v>
       </c>
       <c r="B94">
-        <v>2.468679178820318</v>
+        <v>2.19276599588871</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45051</v>
       </c>
       <c r="B95">
-        <v>3.783200630189277</v>
+        <v>2.336657188347201</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45052</v>
       </c>
       <c r="B96">
-        <v>2.843939738390717</v>
+        <v>2.323032223601133</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45053</v>
       </c>
       <c r="B97">
-        <v>2.057101291038574</v>
+        <v>2.239165250663049</v>
       </c>
       <c r="C97">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45054</v>
       </c>
       <c r="B98">
-        <v>3.655790615140109</v>
+        <v>2.488289416677667</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45055</v>
       </c>
       <c r="B99">
-        <v>2.135352821137626</v>
+        <v>2.05010182612112</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45056</v>
       </c>
       <c r="B100">
-        <v>2.442196678099404</v>
+        <v>2.360657030169994</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45058</v>
       </c>
       <c r="B101">
-        <v>2.478701624514442</v>
+        <v>2.195698726749307</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45061</v>
       </c>
       <c r="B102">
-        <v>3.7932230758834</v>
+        <v>2.339589919207798</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45063</v>
       </c>
       <c r="B103">
-        <v>2.853962184084841</v>
+        <v>2.32596495446173</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45064</v>
       </c>
       <c r="B104">
-        <v>2.067123736732698</v>
+        <v>2.242097981523646</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45066</v>
       </c>
       <c r="B105">
-        <v>3.665813060834233</v>
+        <v>2.491222147538263</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45068</v>
       </c>
       <c r="B106">
-        <v>2.145375266831751</v>
+        <v>2.053034556981717</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45069</v>
       </c>
       <c r="B107">
-        <v>2.452219123793528</v>
+        <v>2.363589761030591</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45072</v>
       </c>
       <c r="B108">
-        <v>2.488724070208566</v>
+        <v>2.198631457609904</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45074</v>
       </c>
       <c r="B109">
-        <v>3.803245521577525</v>
+        <v>2.342522650068394</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45075</v>
       </c>
       <c r="B110">
-        <v>2.863984629778965</v>
+        <v>2.328897685322327</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45076</v>
       </c>
       <c r="B111">
-        <v>2.077146182426822</v>
+        <v>2.245030712384243</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45078</v>
       </c>
       <c r="B112">
-        <v>3.675835506528357</v>
+        <v>2.49415487839886</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45080</v>
       </c>
       <c r="B113">
-        <v>2.155397712525875</v>
+        <v>2.055967287842313</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45081</v>
       </c>
       <c r="B114">
-        <v>2.462241569487652</v>
+        <v>2.366522491891188</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45083</v>
       </c>
       <c r="B115">
-        <v>2.49874651590269</v>
+        <v>2.201564188470501</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45084</v>
       </c>
       <c r="B116">
-        <v>3.813267967271649</v>
+        <v>2.345455380928992</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45085</v>
       </c>
       <c r="B117">
-        <v>2.874007075473089</v>
+        <v>2.331830416182924</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45088</v>
       </c>
       <c r="B118">
-        <v>2.087168628120946</v>
+        <v>2.24796344324484</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45090</v>
       </c>
       <c r="B119">
-        <v>3.685857952222482</v>
+        <v>2.497087609259457</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45091</v>
       </c>
       <c r="B120">
-        <v>2.165420158219999</v>
+        <v>2.05890001870291</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45092</v>
       </c>
       <c r="B121">
-        <v>2.472264015181776</v>
+        <v>2.369455222751785</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45093</v>
       </c>
       <c r="B122">
-        <v>2.508768961596815</v>
+        <v>2.204496919331098</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45094</v>
       </c>
       <c r="B123">
-        <v>3.823290412965773</v>
+        <v>2.348388111789589</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45095</v>
       </c>
       <c r="B124">
-        <v>2.884029521167214</v>
+        <v>2.334763147043521</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45096</v>
       </c>
       <c r="B125">
-        <v>2.09719107381507</v>
+        <v>2.250896174105437</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45100</v>
       </c>
       <c r="B126">
-        <v>3.695880397916605</v>
+        <v>2.500020340120054</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45105</v>
       </c>
       <c r="B127">
-        <v>2.175442603914123</v>
+        <v>2.061832749563507</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45106</v>
       </c>
       <c r="B128">
-        <v>2.482286460875901</v>
+        <v>2.372387953612382</v>
       </c>
       <c r="C128">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45108</v>
       </c>
       <c r="B129">
-        <v>2.518791407290939</v>
+        <v>2.207429650191695</v>
       </c>
       <c r="C129">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45109</v>
       </c>
       <c r="B130">
-        <v>3.833312858659897</v>
+        <v>2.351320842650185</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45110</v>
       </c>
       <c r="B131">
-        <v>2.894051966861338</v>
+        <v>2.337695877904118</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45111</v>
       </c>
       <c r="B132">
-        <v>2.107213519509195</v>
+        <v>2.253828904966034</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45112</v>
       </c>
       <c r="B133">
-        <v>3.70590284361073</v>
+        <v>2.502953070980651</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45113</v>
       </c>
       <c r="B134">
-        <v>2.185465049608247</v>
+        <v>2.064765480424104</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45114</v>
       </c>
       <c r="B135">
-        <v>2.492308906570025</v>
+        <v>2.375320684472979</v>
       </c>
       <c r="C135">
         <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45115</v>
       </c>
       <c r="B136">
-        <v>2.528813852985063</v>
+        <v>2.210362381052292</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45116</v>
       </c>
       <c r="B137">
-        <v>3.843335304354021</v>
+        <v>2.354253573510782</v>
       </c>
       <c r="C137">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45117</v>
       </c>
       <c r="B138">
-        <v>2.904074412555462</v>
+        <v>2.340628608764715</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45118</v>
       </c>
       <c r="B139">
-        <v>2.117235965203319</v>
+        <v>2.256761635826631</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45119</v>
       </c>
       <c r="B140">
-        <v>3.715925289304854</v>
+        <v>2.505885801841248</v>
       </c>
       <c r="C140">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45120</v>
       </c>
       <c r="B141">
-        <v>2.195487495302371</v>
+        <v>2.067698211284701</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45121</v>
       </c>
       <c r="B142">
-        <v>2.502331352264149</v>
+        <v>2.378253415333576</v>
       </c>
       <c r="C142">
         <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45122</v>
       </c>
       <c r="B143">
-        <v>2.538836298679187</v>
+        <v>2.213295111912889</v>
       </c>
       <c r="C143">
         <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45125</v>
       </c>
       <c r="B144">
-        <v>3.853357750048145</v>
+        <v>2.357186304371379</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45126</v>
       </c>
       <c r="B145">
-        <v>2.914096858249586</v>
+        <v>2.343561339625312</v>
       </c>
       <c r="C145">
         <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45127</v>
       </c>
       <c r="B146">
-        <v>2.127258410897443</v>
+        <v>2.259694366687228</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45128</v>
       </c>
       <c r="B147">
-        <v>3.725947734998978</v>
+        <v>2.508818532701845</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45129</v>
       </c>
       <c r="B148">
-        <v>2.205509940996496</v>
+        <v>2.070630942145298</v>
       </c>
       <c r="C148">
         <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45131</v>
       </c>
       <c r="B149">
-        <v>2.512353797958273</v>
+        <v>2.381186146194173</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45133</v>
       </c>
       <c r="B150">
-        <v>2.548858744373311</v>
+        <v>2.216227842773486</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45134</v>
       </c>
       <c r="B151">
-        <v>3.86338019574227</v>
+        <v>2.360119035231977</v>
       </c>
       <c r="C151">
         <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45135</v>
       </c>
       <c r="B152">
-        <v>2.92411930394371</v>
+        <v>2.346494070485909</v>
       </c>
       <c r="C152">
         <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45136</v>
       </c>
       <c r="B153">
-        <v>2.137280856591567</v>
+        <v>2.262627097547825</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45137</v>
       </c>
       <c r="B154">
-        <v>3.735970180693102</v>
+        <v>2.511751263562442</v>
       </c>
       <c r="C154">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45139</v>
       </c>
       <c r="B155">
-        <v>2.21553238669062</v>
+        <v>2.073563673005895</v>
       </c>
       <c r="C155">
         <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45140</v>
       </c>
       <c r="B156">
-        <v>2.522376243652397</v>
+        <v>2.38411887705477</v>
       </c>
       <c r="C156">
         <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45141</v>
       </c>
       <c r="B157">
-        <v>2.558881190067435</v>
+        <v>2.219160573634083</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45143</v>
       </c>
       <c r="B158">
-        <v>3.873402641436393</v>
+        <v>2.363051766092573</v>
       </c>
       <c r="C158">
         <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45144</v>
       </c>
       <c r="B159">
-        <v>2.934141749637834</v>
+        <v>2.349426801346506</v>
       </c>
       <c r="C159">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45145</v>
       </c>
       <c r="B160">
-        <v>2.147303302285691</v>
+        <v>2.265559828408422</v>
       </c>
       <c r="C160">
         <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45147</v>
       </c>
       <c r="B161">
-        <v>3.745992626387226</v>
+        <v>2.514683994423039</v>
       </c>
       <c r="C161">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45148</v>
       </c>
       <c r="B162">
-        <v>2.225554832384744</v>
+        <v>2.076496403866492</v>
       </c>
       <c r="C162">
         <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45149</v>
       </c>
       <c r="B163">
-        <v>2.532398689346521</v>
+        <v>2.387051607915367</v>
       </c>
       <c r="C163">
         <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45150</v>
       </c>
       <c r="B164">
-        <v>2.568903635761559</v>
+        <v>2.22209330449468</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45152</v>
       </c>
       <c r="B165">
-        <v>3.883425087130518</v>
+        <v>2.36598449695317</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45154</v>
       </c>
       <c r="B166">
-        <v>2.944164195331958</v>
+        <v>2.352359532207103</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45156</v>
       </c>
       <c r="B167">
-        <v>2.157325747979815</v>
+        <v>2.268492559269018</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45157</v>
       </c>
       <c r="B168">
-        <v>3.75601507208135</v>
+        <v>2.517616725283636</v>
       </c>
       <c r="C168">
         <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45158</v>
       </c>
       <c r="B169">
-        <v>2.235577278078868</v>
+        <v>2.079429134727089</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45159</v>
       </c>
       <c r="B170">
-        <v>2.542421135040645</v>
+        <v>2.389984338775964</v>
       </c>
       <c r="C170">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45161</v>
       </c>
       <c r="B171">
-        <v>2.578926081455684</v>
+        <v>2.225026035355277</v>
       </c>
       <c r="C171">
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45162</v>
       </c>
       <c r="B172">
-        <v>3.893447532824641</v>
+        <v>2.368917227813767</v>
       </c>
       <c r="C172">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45163</v>
       </c>
       <c r="B173">
-        <v>2.954186641026082</v>
+        <v>2.3552922630677</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45165</v>
       </c>
       <c r="B174">
-        <v>2.167348193673939</v>
+        <v>2.271425290129615</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45167</v>
       </c>
       <c r="B175">
-        <v>3.766037517775475</v>
+        <v>2.520549456144233</v>
       </c>
       <c r="C175">
         <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45168</v>
       </c>
       <c r="B176">
-        <v>2.245599723772992</v>
+        <v>2.082361865587686</v>
       </c>
       <c r="C176">
         <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45170</v>
       </c>
       <c r="B177">
-        <v>2.552443580734769</v>
+        <v>2.392917069636561</v>
       </c>
       <c r="C177">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45171</v>
       </c>
       <c r="B178">
-        <v>2.588948527149808</v>
+        <v>2.227958766215874</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45172</v>
       </c>
       <c r="B179">
-        <v>3.903469978518766</v>
+        <v>2.371849958674364</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45174</v>
       </c>
       <c r="B180">
-        <v>2.964209086720206</v>
+        <v>2.358224993928297</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45176</v>
       </c>
       <c r="B181">
-        <v>2.177370639368063</v>
+        <v>2.274358020990213</v>
       </c>
       <c r="C181">
         <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45177</v>
       </c>
       <c r="B182">
-        <v>3.776059963469598</v>
+        <v>2.52348218700483</v>
       </c>
       <c r="C182">
         <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45178</v>
       </c>
       <c r="B183">
-        <v>2.255622169467116</v>
+        <v>2.085294596448283</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45179</v>
       </c>
       <c r="B184">
-        <v>2.562466026428893</v>
+        <v>2.395849800497158</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
+      <c r="A185" s="2">
+        <v>45180</v>
       </c>
       <c r="B185">
-        <v>2.598970972843932</v>
+        <v>2.23089149707647</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
+      <c r="A186" s="2">
+        <v>45182</v>
       </c>
       <c r="B186">
-        <v>3.91349242421289</v>
+        <v>2.374782689534961</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
+      <c r="A187" s="2">
+        <v>45183</v>
       </c>
       <c r="B187">
-        <v>2.974231532414331</v>
+        <v>2.361157724788894</v>
       </c>
       <c r="C187">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2">
+        <v>45185</v>
       </c>
       <c r="B188">
-        <v>2.187393085062187</v>
+        <v>2.277290751850809</v>
       </c>
       <c r="C188">
         <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>45186</v>
       </c>
       <c r="B189">
-        <v>3.786082409163723</v>
+        <v>2.526414917865427</v>
       </c>
       <c r="C189">
         <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
+      <c r="A190" s="2">
+        <v>45189</v>
       </c>
       <c r="B190">
-        <v>2.26564461516124</v>
+        <v>2.08822732730888</v>
       </c>
       <c r="C190">
         <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
+      <c r="A191" s="2">
+        <v>45190</v>
       </c>
       <c r="B191">
-        <v>2.572488472123018</v>
+        <v>2.398782531357754</v>
       </c>
       <c r="C191">
         <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
+      <c r="A192" s="2">
+        <v>45191</v>
       </c>
       <c r="B192">
-        <v>2.608993418538056</v>
+        <v>2.233824227937068</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
+      <c r="A193" s="2">
+        <v>45193</v>
       </c>
       <c r="B193">
-        <v>3.923514869907014</v>
+        <v>2.377715420395558</v>
       </c>
       <c r="C193">
         <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2">
+        <v>45194</v>
       </c>
       <c r="B194">
-        <v>2.984253978108455</v>
+        <v>2.364090455649491</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
+      <c r="A195" s="2">
+        <v>45195</v>
       </c>
       <c r="B195">
-        <v>2.197415530756312</v>
+        <v>2.280223482711406</v>
       </c>
       <c r="C195">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>45196</v>
       </c>
       <c r="B196">
-        <v>3.796104854857846</v>
+        <v>2.529347648726024</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
+      <c r="A197" s="2">
+        <v>45197</v>
       </c>
       <c r="B197">
-        <v>2.275667060855364</v>
+        <v>2.091160058169477</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
+      <c r="A198" s="2">
+        <v>45198</v>
       </c>
       <c r="B198">
-        <v>2.582510917817142</v>
+        <v>2.401715262218352</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
+      <c r="A199" s="2">
+        <v>45201</v>
       </c>
       <c r="B199">
-        <v>2.61901586423218</v>
+        <v>2.236756958797665</v>
       </c>
       <c r="C199">
         <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2">
+        <v>45202</v>
       </c>
       <c r="B200">
-        <v>3.933537315601138</v>
+        <v>2.380648151256155</v>
       </c>
       <c r="C200">
         <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
+      <c r="A201" s="2">
+        <v>45203</v>
       </c>
       <c r="B201">
-        <v>2.994276423802579</v>
+        <v>2.367023186510087</v>
       </c>
       <c r="C201">
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>45205</v>
       </c>
       <c r="B202">
-        <v>2.207437976450436</v>
+        <v>2.283156213572003</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
+      <c r="A203" s="2">
+        <v>45207</v>
       </c>
       <c r="B203">
-        <v>3.806127300551971</v>
+        <v>2.53228037958662</v>
       </c>
       <c r="C203">
         <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
+      <c r="A204" s="2">
+        <v>45210</v>
       </c>
       <c r="B204">
-        <v>2.285689506549488</v>
+        <v>2.094092789030074</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
+      <c r="A205" s="2">
+        <v>45211</v>
       </c>
       <c r="B205">
-        <v>2.592533363511266</v>
+        <v>2.404647993078949</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2">
+        <v>45212</v>
       </c>
       <c r="B206">
-        <v>2.629038309926304</v>
+        <v>2.239689689658261</v>
       </c>
       <c r="C206">
         <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
+      <c r="A207" s="2">
+        <v>45213</v>
       </c>
       <c r="B207">
-        <v>3.943559761295262</v>
+        <v>2.383580882116752</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
+      <c r="A208" s="2">
+        <v>45214</v>
       </c>
       <c r="B208">
-        <v>3.004298869496703</v>
+        <v>2.369955917370684</v>
       </c>
       <c r="C208">
         <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>45215</v>
       </c>
       <c r="B209">
-        <v>2.21746042214456</v>
+        <v>2.2860889444326</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
+      <c r="A210" s="2">
+        <v>45216</v>
       </c>
       <c r="B210">
-        <v>3.816149746246095</v>
+        <v>2.535213110447218</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
+      <c r="A211" s="2">
+        <v>45218</v>
       </c>
       <c r="B211">
-        <v>2.295711952243613</v>
+        <v>2.097025519890671</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2">
+        <v>45220</v>
       </c>
       <c r="B212">
-        <v>2.60255580920539</v>
+        <v>2.407580723939545</v>
       </c>
       <c r="C212">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
+      <c r="A213" s="2">
+        <v>45221</v>
       </c>
       <c r="B213">
-        <v>2.639060755620428</v>
+        <v>2.242622420518858</v>
       </c>
       <c r="C213">
         <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
+      <c r="A214" s="2">
+        <v>45223</v>
       </c>
       <c r="B214">
-        <v>3.953582206989386</v>
+        <v>2.386513612977349</v>
       </c>
       <c r="C214">
         <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
+      <c r="A215" s="2">
+        <v>45224</v>
       </c>
       <c r="B215">
-        <v>3.014321315190827</v>
+        <v>2.372888648231281</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
+      <c r="A216" s="2">
+        <v>45225</v>
       </c>
       <c r="B216">
-        <v>2.227482867838684</v>
+        <v>2.289021675293197</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
+      <c r="A217" s="2">
+        <v>45227</v>
       </c>
       <c r="B217">
-        <v>3.826172191940219</v>
+        <v>2.538145841307815</v>
       </c>
       <c r="C217">
         <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2">
+        <v>45228</v>
       </c>
       <c r="B218">
-        <v>2.305734397937737</v>
+        <v>2.099958250751268</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
+      <c r="A219" s="2">
+        <v>45229</v>
       </c>
       <c r="B219">
-        <v>2.612578254899514</v>
+        <v>2.410513454800142</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
+      <c r="A220" s="2">
+        <v>45232</v>
       </c>
       <c r="B220">
-        <v>2.649083201314552</v>
+        <v>2.245555151379455</v>
       </c>
       <c r="C220">
         <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
+      <c r="A221" s="2">
+        <v>45233</v>
       </c>
       <c r="B221">
-        <v>3.963604652683511</v>
+        <v>2.389446343837946</v>
       </c>
       <c r="C221">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
+      <c r="A222" s="2">
+        <v>45234</v>
       </c>
       <c r="B222">
-        <v>3.024343760884951</v>
+        <v>2.375821379091879</v>
       </c>
       <c r="C222">
         <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
+      <c r="A223" s="2">
+        <v>45235</v>
       </c>
       <c r="B223">
-        <v>2.237505313532808</v>
+        <v>2.291954406153794</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
+      <c r="A224" s="2">
+        <v>45237</v>
       </c>
       <c r="B224">
-        <v>3.836194637634343</v>
+        <v>2.541078572168411</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
+      <c r="A225" s="2">
+        <v>45238</v>
       </c>
       <c r="B225">
-        <v>2.315756843631861</v>
+        <v>2.102890981611865</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>224</v>
+      <c r="A226" s="2">
+        <v>45240</v>
       </c>
       <c r="B226">
-        <v>2.622600700593638</v>
+        <v>2.413446185660739</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>225</v>
+      <c r="A227" s="2">
+        <v>45241</v>
       </c>
       <c r="B227">
-        <v>2.659105647008676</v>
+        <v>2.248487882240052</v>
       </c>
       <c r="C227">
         <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>226</v>
+      <c r="A228" s="2">
+        <v>45242</v>
       </c>
       <c r="B228">
-        <v>3.973627098377635</v>
+        <v>2.392379074698543</v>
       </c>
       <c r="C228">
         <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>227</v>
+      <c r="A229" s="2">
+        <v>45244</v>
       </c>
       <c r="B229">
-        <v>3.034366206579076</v>
+        <v>2.378754109952475</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>228</v>
+      <c r="A230" s="2">
+        <v>45245</v>
       </c>
       <c r="B230">
-        <v>2.247527759226932</v>
+        <v>2.294887137014391</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>229</v>
+      <c r="A231" s="2">
+        <v>45246</v>
       </c>
       <c r="B231">
-        <v>3.846217083328467</v>
+        <v>2.544011303029008</v>
       </c>
       <c r="C231">
         <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>230</v>
+      <c r="A232" s="2">
+        <v>45247</v>
       </c>
       <c r="B232">
-        <v>2.325779289325985</v>
+        <v>2.105823712472461</v>
       </c>
       <c r="C232">
         <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>231</v>
+      <c r="A233" s="2">
+        <v>45248</v>
       </c>
       <c r="B233">
-        <v>2.632623146287763</v>
+        <v>2.416378916521337</v>
       </c>
       <c r="C233">
         <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>232</v>
+      <c r="A234" s="2">
+        <v>45249</v>
       </c>
       <c r="B234">
-        <v>2.669128092702801</v>
+        <v>2.251420613100649</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>233</v>
+      <c r="A235" s="2">
+        <v>45251</v>
       </c>
       <c r="B235">
-        <v>3.983649544071759</v>
+        <v>2.39531180555914</v>
       </c>
       <c r="C235">
         <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>234</v>
+      <c r="A236" s="2">
+        <v>45252</v>
       </c>
       <c r="B236">
-        <v>3.0443886522732</v>
+        <v>2.381686840813072</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="1">
-        <v>235</v>
+      <c r="A237" s="2">
+        <v>45254</v>
       </c>
       <c r="B237">
-        <v>2.257550204921056</v>
+        <v>2.297819867874988</v>
       </c>
       <c r="C237">
         <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1">
-        <v>236</v>
+      <c r="A238" s="2">
+        <v>45255</v>
       </c>
       <c r="B238">
-        <v>3.856239529022591</v>
+        <v>2.546944033889605</v>
       </c>
       <c r="C238">
         <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>237</v>
+      <c r="A239" s="2">
+        <v>45256</v>
       </c>
       <c r="B239">
-        <v>2.335801735020109</v>
+        <v>2.108756443333059</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="1">
-        <v>238</v>
+      <c r="A240" s="2">
+        <v>45258</v>
       </c>
       <c r="B240">
-        <v>2.642645591981887</v>
+        <v>2.419311647381933</v>
       </c>
       <c r="C240">
         <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>239</v>
+      <c r="A241" s="2">
+        <v>45259</v>
       </c>
       <c r="B241">
-        <v>2.679150538396925</v>
+        <v>2.254353343961246</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="1">
-        <v>240</v>
+      <c r="A242" s="2">
+        <v>45261</v>
       </c>
       <c r="B242">
-        <v>3.993671989765883</v>
+        <v>2.398244536419737</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="1">
-        <v>241</v>
+      <c r="A243" s="2">
+        <v>45262</v>
       </c>
       <c r="B243">
-        <v>3.054411097967324</v>
+        <v>2.384619571673669</v>
       </c>
       <c r="C243">
         <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="1">
-        <v>242</v>
+      <c r="A244" s="2">
+        <v>45263</v>
       </c>
       <c r="B244">
-        <v>2.26757265061518</v>
+        <v>2.300752598735585</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="1">
-        <v>243</v>
+      <c r="A245" s="2">
+        <v>45264</v>
       </c>
       <c r="B245">
-        <v>3.866261974716716</v>
+        <v>2.549876764750203</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="1">
-        <v>244</v>
+      <c r="A246" s="2">
+        <v>45265</v>
       </c>
       <c r="B246">
-        <v>2.345824180714233</v>
+        <v>2.111689174193656</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="1">
-        <v>245</v>
+      <c r="A247" s="2">
+        <v>45267</v>
       </c>
       <c r="B247">
-        <v>2.652668037676011</v>
+        <v>2.42224437824253</v>
       </c>
       <c r="C247">
         <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="1">
-        <v>246</v>
+      <c r="A248" s="2">
+        <v>45269</v>
       </c>
       <c r="B248">
-        <v>2.689172984091049</v>
+        <v>2.257286074821843</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="1">
-        <v>247</v>
+      <c r="A249" s="2">
+        <v>45270</v>
       </c>
       <c r="B249">
-        <v>4.003694435460007</v>
+        <v>2.401177267280334</v>
       </c>
       <c r="C249">
         <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="1">
-        <v>248</v>
+      <c r="A250" s="2">
+        <v>45271</v>
       </c>
       <c r="B250">
-        <v>3.064433543661448</v>
+        <v>2.387552302534266</v>
       </c>
       <c r="C250">
         <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="1">
-        <v>249</v>
+      <c r="A251" s="2">
+        <v>45272</v>
       </c>
       <c r="B251">
-        <v>2.277595096309304</v>
+        <v>2.303685329596182</v>
       </c>
       <c r="C251">
         <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="1">
-        <v>250</v>
+      <c r="A252" s="2">
+        <v>45273</v>
       </c>
       <c r="B252">
-        <v>3.87628442041084</v>
+        <v>2.552809495610799</v>
       </c>
       <c r="C252">
         <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="1">
-        <v>251</v>
+      <c r="A253" s="2">
+        <v>45274</v>
       </c>
       <c r="B253">
-        <v>2.355846626408357</v>
+        <v>2.114621905054253</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="1">
-        <v>252</v>
+      <c r="A254" s="2">
+        <v>45275</v>
       </c>
       <c r="B254">
-        <v>2.662690483370135</v>
+        <v>2.425177109103127</v>
       </c>
       <c r="C254">
         <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="1">
-        <v>253</v>
+      <c r="A255" s="2">
+        <v>45277</v>
       </c>
       <c r="B255">
-        <v>2.699195429785173</v>
+        <v>2.26021880568244</v>
       </c>
       <c r="C255">
         <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="1">
-        <v>254</v>
+      <c r="A256" s="2">
+        <v>45278</v>
       </c>
       <c r="B256">
-        <v>4.013716881154131</v>
+        <v>2.40410999814093</v>
       </c>
       <c r="C256">
         <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="1">
-        <v>255</v>
+      <c r="A257" s="2">
+        <v>45279</v>
       </c>
       <c r="B257">
-        <v>3.074455989355572</v>
+        <v>2.390485033394863</v>
       </c>
       <c r="C257">
         <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="1">
-        <v>256</v>
+      <c r="A258" s="2">
+        <v>45282</v>
       </c>
       <c r="B258">
-        <v>2.287617542003428</v>
+        <v>2.306618060456779</v>
       </c>
       <c r="C258">
         <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="1">
-        <v>257</v>
+      <c r="A259" s="2">
+        <v>45283</v>
       </c>
       <c r="B259">
-        <v>3.886306866104964</v>
+        <v>2.555742226471396</v>
       </c>
       <c r="C259">
         <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="1">
-        <v>258</v>
+      <c r="A260" s="2">
+        <v>45284</v>
       </c>
       <c r="B260">
-        <v>2.365869072102481</v>
+        <v>2.117554635914849</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="1">
-        <v>259</v>
+      <c r="A261" s="2">
+        <v>45286</v>
       </c>
       <c r="B261">
-        <v>2.672712929064259</v>
+        <v>2.428109839963724</v>
       </c>
       <c r="C261">
         <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="1">
-        <v>260</v>
+      <c r="A262" s="2">
+        <v>45287</v>
       </c>
       <c r="B262">
-        <v>2.709217875479297</v>
+        <v>2.263151536543037</v>
       </c>
       <c r="C262">
         <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="1">
-        <v>261</v>
+      <c r="A263" s="2">
+        <v>45288</v>
       </c>
       <c r="B263">
-        <v>4.023739326848255</v>
+        <v>2.407042729001528</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="1">
-        <v>262</v>
+      <c r="A264" s="2">
+        <v>45289</v>
       </c>
       <c r="B264">
-        <v>3.084478435049696</v>
+        <v>2.39341776425546</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="1">
-        <v>263</v>
+      <c r="A265" s="2">
+        <v>45294</v>
       </c>
       <c r="B265">
-        <v>2.297639987697553</v>
+        <v>2.309550791317376</v>
       </c>
       <c r="C265">
         <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="1">
-        <v>264</v>
+      <c r="A266" s="2">
+        <v>45298</v>
       </c>
       <c r="B266">
-        <v>3.896329311799088</v>
+        <v>2.558674957331993</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="1">
-        <v>265</v>
+      <c r="A267" s="2">
+        <v>45302</v>
       </c>
       <c r="B267">
-        <v>2.375891517796605</v>
+        <v>2.120487366775446</v>
       </c>
       <c r="C267">
         <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="1">
-        <v>266</v>
+      <c r="A268" s="2">
+        <v>45303</v>
       </c>
       <c r="B268">
-        <v>2.682735374758383</v>
+        <v>2.431042570824321</v>
       </c>
       <c r="C268">
         <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="1">
-        <v>267</v>
+      <c r="A269" s="2">
+        <v>45304</v>
       </c>
       <c r="B269">
-        <v>2.719240321173421</v>
+        <v>2.266084267403634</v>
       </c>
       <c r="C269">
         <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="1">
-        <v>268</v>
+      <c r="A270" s="2">
+        <v>45305</v>
       </c>
       <c r="B270">
-        <v>4.03376177254238</v>
+        <v>2.409975459862125</v>
       </c>
       <c r="C270">
         <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="1">
-        <v>269</v>
+      <c r="A271" s="2">
+        <v>45306</v>
       </c>
       <c r="B271">
-        <v>3.09450088074382</v>
+        <v>2.396350495116057</v>
       </c>
       <c r="C271">
         <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="1">
-        <v>270</v>
+      <c r="A272" s="2">
+        <v>45307</v>
       </c>
       <c r="B272">
-        <v>2.307662433391677</v>
+        <v>2.312483522177973</v>
       </c>
       <c r="C272">
         <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="1">
-        <v>271</v>
+      <c r="A273" s="2">
+        <v>45308</v>
       </c>
       <c r="B273">
-        <v>3.906351757493212</v>
+        <v>2.56160768819259</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="1">
-        <v>272</v>
+      <c r="A274" s="2">
+        <v>45309</v>
       </c>
       <c r="B274">
-        <v>2.385913963490729</v>
+        <v>2.123420097636044</v>
       </c>
       <c r="C274">
         <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="1">
-        <v>273</v>
+      <c r="A275" s="2">
+        <v>45310</v>
       </c>
       <c r="B275">
-        <v>2.692757820452507</v>
+        <v>2.433975301684918</v>
       </c>
       <c r="C275">
         <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="1">
-        <v>274</v>
+      <c r="A276" s="2">
+        <v>45311</v>
       </c>
       <c r="B276">
-        <v>2.729262766867545</v>
+        <v>2.269016998264231</v>
       </c>
       <c r="C276">
         <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="1">
-        <v>275</v>
+      <c r="A277" s="2">
+        <v>45313</v>
       </c>
       <c r="B277">
-        <v>4.043784218236504</v>
+        <v>2.412908190722721</v>
       </c>
       <c r="C277">
         <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="1">
-        <v>276</v>
+      <c r="A278" s="2">
+        <v>45315</v>
       </c>
       <c r="B278">
-        <v>3.104523326437944</v>
+        <v>2.399283225976654</v>
       </c>
       <c r="C278">
         <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="1">
-        <v>277</v>
+      <c r="A279" s="2">
+        <v>45316</v>
       </c>
       <c r="B279">
-        <v>2.317684879085801</v>
+        <v>2.31541625303857</v>
       </c>
       <c r="C279">
         <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="1">
-        <v>278</v>
+      <c r="A280" s="2">
+        <v>45317</v>
       </c>
       <c r="B280">
-        <v>3.916374203187337</v>
+        <v>2.564540419053187</v>
       </c>
       <c r="C280">
         <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="1">
-        <v>279</v>
+      <c r="A281" s="2">
+        <v>45318</v>
       </c>
       <c r="B281">
-        <v>2.395936409184854</v>
+        <v>2.12635282849664</v>
       </c>
       <c r="C281">
         <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="1">
-        <v>280</v>
+      <c r="A282" s="2">
+        <v>45319</v>
       </c>
       <c r="B282">
-        <v>2.702780266146631</v>
+        <v>2.436908032545515</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="1">
-        <v>281</v>
+      <c r="A283" s="2">
+        <v>45320</v>
       </c>
       <c r="B283">
-        <v>2.739285212561669</v>
+        <v>2.271949729124828</v>
       </c>
       <c r="C283">
         <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="1">
-        <v>282</v>
+      <c r="A284" s="2">
+        <v>45321</v>
       </c>
       <c r="B284">
-        <v>4.053806663930628</v>
+        <v>2.415840921583318</v>
       </c>
       <c r="C284">
         <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="1">
-        <v>283</v>
+      <c r="A285" s="2">
+        <v>45323</v>
       </c>
       <c r="B285">
-        <v>3.114545772132069</v>
+        <v>2.402215956837251</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="1">
-        <v>284</v>
+      <c r="A286" s="2">
+        <v>45324</v>
       </c>
       <c r="B286">
-        <v>2.327707324779925</v>
+        <v>2.318348983899167</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="1">
-        <v>285</v>
+      <c r="A287" s="2">
+        <v>45325</v>
       </c>
       <c r="B287">
-        <v>3.92639664888146</v>
+        <v>2.567473149913784</v>
       </c>
       <c r="C287">
         <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="1">
-        <v>286</v>
+      <c r="A288" s="2">
+        <v>45326</v>
       </c>
       <c r="B288">
-        <v>2.405958854878978</v>
+        <v>2.129285559357237</v>
       </c>
       <c r="C288">
         <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="1">
-        <v>287</v>
+      <c r="A289" s="2">
+        <v>45329</v>
       </c>
       <c r="B289">
-        <v>2.712802711840756</v>
+        <v>2.439840763406112</v>
       </c>
       <c r="C289">
         <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="1">
-        <v>288</v>
+      <c r="A290" s="2">
+        <v>45330</v>
       </c>
       <c r="B290">
-        <v>2.749307658255793</v>
+        <v>2.274882459985425</v>
       </c>
       <c r="C290">
         <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="1">
-        <v>289</v>
+      <c r="A291" s="2">
+        <v>45333</v>
       </c>
       <c r="B291">
-        <v>4.063829109624752</v>
+        <v>2.418773652443915</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="1">
-        <v>290</v>
+      <c r="A292" s="2">
+        <v>45334</v>
       </c>
       <c r="B292">
-        <v>3.124568217826193</v>
+        <v>2.405148687697848</v>
       </c>
       <c r="C292">
         <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="1">
-        <v>291</v>
+      <c r="A293" s="2">
+        <v>45335</v>
       </c>
       <c r="B293">
-        <v>2.337729770474049</v>
+        <v>2.321281714759764</v>
       </c>
       <c r="C293">
         <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="1">
-        <v>292</v>
+      <c r="A294" s="2">
+        <v>45336</v>
       </c>
       <c r="B294">
-        <v>3.936419094575585</v>
+        <v>2.570405880774381</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="1">
-        <v>293</v>
+      <c r="A295" s="2">
+        <v>45337</v>
       </c>
       <c r="B295">
-        <v>2.415981300573102</v>
+        <v>2.132218290217834</v>
       </c>
       <c r="C295">
         <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="1">
-        <v>294</v>
+      <c r="A296" s="2">
+        <v>45338</v>
       </c>
       <c r="B296">
-        <v>2.72282515753488</v>
+        <v>2.442773494266709</v>
       </c>
       <c r="C296">
         <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="1">
-        <v>295</v>
+      <c r="A297" s="2">
+        <v>45339</v>
       </c>
       <c r="B297">
-        <v>2.759330103949918</v>
+        <v>2.277815190846022</v>
       </c>
       <c r="C297">
         <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="1">
-        <v>296</v>
+      <c r="A298" s="2">
+        <v>45340</v>
       </c>
       <c r="B298">
-        <v>4.073851555318876</v>
+        <v>2.421706383304512</v>
       </c>
       <c r="C298">
         <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="1">
-        <v>297</v>
+      <c r="A299" s="2">
+        <v>45341</v>
       </c>
       <c r="B299">
-        <v>3.134590663520317</v>
+        <v>2.408081418558445</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="1">
-        <v>298</v>
+      <c r="A300" s="2">
+        <v>45342</v>
       </c>
       <c r="B300">
-        <v>2.347752216168173</v>
+        <v>2.324214445620361</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="1">
-        <v>299</v>
+      <c r="A301" s="2">
+        <v>45343</v>
       </c>
       <c r="B301">
-        <v>3.946441540269708</v>
+        <v>2.573338611634978</v>
       </c>
       <c r="C301">
         <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="1">
-        <v>300</v>
+      <c r="A302" s="2">
+        <v>45344</v>
       </c>
       <c r="B302">
-        <v>2.426003746267226</v>
+        <v>2.135151021078431</v>
       </c>
       <c r="C302">
         <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="1">
-        <v>301</v>
+      <c r="A303" s="2">
+        <v>45345</v>
       </c>
       <c r="B303">
-        <v>2.732847603229004</v>
+        <v>2.445706225127306</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="1">
-        <v>302</v>
+      <c r="A304" s="2">
+        <v>45346</v>
       </c>
       <c r="B304">
-        <v>2.769352549644042</v>
+        <v>2.280747921706619</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="1">
-        <v>303</v>
+      <c r="A305" s="2">
+        <v>45347</v>
       </c>
       <c r="B305">
-        <v>4.083874001013</v>
+        <v>2.424639114165109</v>
       </c>
       <c r="C305">
         <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="1">
-        <v>304</v>
+      <c r="A306" s="2">
+        <v>45348</v>
       </c>
       <c r="B306">
-        <v>3.144613109214441</v>
+        <v>2.411014149419042</v>
       </c>
       <c r="C306">
         <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="1">
-        <v>305</v>
+      <c r="A307" s="2">
+        <v>45349</v>
       </c>
       <c r="B307">
-        <v>2.357774661862297</v>
+        <v>2.327147176480957</v>
       </c>
       <c r="C307">
         <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="1">
-        <v>306</v>
+      <c r="A308" s="2">
+        <v>45350</v>
       </c>
       <c r="B308">
-        <v>3.956463985963833</v>
+        <v>2.576271342495575</v>
       </c>
       <c r="C308">
         <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="1">
-        <v>307</v>
+      <c r="A309" s="2">
+        <v>45352</v>
       </c>
       <c r="B309">
-        <v>2.43602619196135</v>
+        <v>2.138083751939028</v>
       </c>
       <c r="C309">
         <v>3</v>
